--- a/data/output/FV2304_FV2210/INVOIC/31007.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31007.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="298">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="298">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1043,6 +1043,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U175" totalsRowShown="0">
+  <autoFilter ref="A1:U175"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,7 +1362,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9136,5 +9169,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31007.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31007.xlsx
@@ -1519,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1542,6 +1542,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1550,6 +1553,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1990,7 +1996,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2326,7 +2332,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2560,7 +2566,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2748,7 +2754,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2936,7 +2942,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3120,7 +3126,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3304,7 +3310,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3394,7 +3400,7 @@
         <v>277</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2"/>
@@ -3534,7 +3540,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3724,7 +3730,7 @@
         <v>278</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3914,7 +3920,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4554,20 +4560,20 @@
       <c r="B56" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M56" s="5"/>
@@ -4585,25 +4591,25 @@
       <c r="A57" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M57" s="5"/>
@@ -4621,31 +4627,31 @@
       <c r="A58" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M58" s="5"/>
@@ -4663,33 +4669,33 @@
       <c r="A59" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M59" s="5"/>
@@ -4707,29 +4713,29 @@
       <c r="A60" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M60" s="5"/>
@@ -4757,25 +4763,25 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4791,27 +4797,27 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11" t="s">
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="V62" s="11"/>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4827,33 +4833,33 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4869,33 +4875,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U64" s="11" t="s">
+      <c r="U64" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="V64" s="11" t="s">
+      <c r="V64" s="13" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4913,31 +4919,31 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="2" t="s">
@@ -4960,7 +4966,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5146,7 +5152,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5506,7 +5512,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6146,22 +6152,22 @@
       <c r="B90" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="L90" s="9" t="s">
+      <c r="L90" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M90" s="5"/>
@@ -6179,25 +6185,25 @@
       <c r="A91" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M91" s="5"/>
@@ -6215,31 +6221,31 @@
       <c r="A92" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M92" s="5"/>
@@ -6257,33 +6263,33 @@
       <c r="A93" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8" t="s">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="L93" s="9" t="s">
+      <c r="L93" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M93" s="5"/>
@@ -6301,29 +6307,29 @@
       <c r="A94" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8" t="s">
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J94" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="J94" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>292</v>
       </c>
       <c r="M94" s="5"/>
@@ -6351,25 +6357,25 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11" t="s">
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V95" s="11" t="s">
+      <c r="V95" s="13" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6387,27 +6393,27 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11" t="s">
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="V96" s="11"/>
+      <c r="V96" s="13"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6423,33 +6429,33 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11" t="s">
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11" t="s">
+      <c r="S97" s="13"/>
+      <c r="T97" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="U97" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="V97" s="11"/>
+      <c r="U97" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="V97" s="13"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6465,33 +6471,33 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11" t="s">
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="S98" s="13"/>
+      <c r="T98" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U98" s="11" t="s">
+      <c r="U98" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="V98" s="11" t="s">
+      <c r="V98" s="13" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6509,31 +6515,31 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11" t="s">
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="U99" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="V99" s="11"/>
+      <c r="U99" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="V99" s="13"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="2" t="s">
@@ -6556,7 +6562,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -6740,7 +6746,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -6982,7 +6988,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7118,7 +7124,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7322,7 +7328,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7566,7 +7572,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7772,7 +7778,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -7972,7 +7978,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8170,7 +8176,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8358,7 +8364,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8546,7 +8552,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8950,7 +8956,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N149" s="2"/>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9226,7 +9232,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9414,7 +9420,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9820,7 +9826,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -9970,7 +9976,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10118,7 +10124,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N173" s="2"/>
